--- a/Programming_Metrics.xlsx
+++ b/Programming_Metrics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="64">
   <si>
     <t>Topics / Topics</t>
   </si>
@@ -284,6 +284,9 @@
   <si>
     <t xml:space="preserve">ES-Reduces code size and power use on limited microcontrollers,mobile apps-Improves battery life and responsiveness
 </t>
+  </si>
+  <si>
+    <t>cant usw</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,7 +707,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1214,8 +1217,12 @@
       <c r="Q8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="T8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1254,15 +1261,33 @@
       <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
@@ -1292,17 +1317,39 @@
       <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
@@ -1332,17 +1379,39 @@
       <c r="I11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
@@ -1369,18 +1438,42 @@
       <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
@@ -1407,18 +1500,42 @@
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
@@ -1441,18 +1558,42 @@
       <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
@@ -1479,18 +1620,42 @@
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
@@ -1515,18 +1680,42 @@
       <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
@@ -1553,18 +1742,42 @@
       <c r="H17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
@@ -1579,7 +1792,9 @@
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1587,18 +1802,42 @@
         <v>22</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
@@ -1625,18 +1864,42 @@
       <c r="H19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
@@ -1663,18 +1926,42 @@
       <c r="H20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
